--- a/tables/TableSX_countries_without_genus_data.xlsx
+++ b/tables/TableSX_countries_without_genus_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/global_intake_inadequacies/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FCDA37DC-CDD9-FA4B-8600-2416885A120B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B713DF3A-0415-5143-B055-40C7F8BA7E24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="520" windowWidth="11900" windowHeight="21520"/>
+    <workbookView xWindow="16280" yWindow="1980" windowWidth="11900" windowHeight="21520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableSX_countries_without_genus" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="223">
   <si>
     <t>ASM</t>
   </si>
@@ -677,12 +677,24 @@
   </si>
   <si>
     <t>Serbia</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>South Korea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1544,11 +1556,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2511,6 +2523,20 @@
         <v>189</v>
       </c>
     </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tables/TableSX_countries_without_genus_data.xlsx
+++ b/tables/TableSX_countries_without_genus_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/global_intake_inadequacies/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B713DF3A-0415-5143-B055-40C7F8BA7E24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72B9F87-C2B5-D349-BF0A-7C06E1917E74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16280" yWindow="1980" windowWidth="11900" windowHeight="21520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1559,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2539,5 +2539,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/tables/TableSX_countries_without_genus_data.xlsx
+++ b/tables/TableSX_countries_without_genus_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/global_intake_inadequacies/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72B9F87-C2B5-D349-BF0A-7C06E1917E74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E83AFF-1DC3-2847-AD92-275638F427A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="1980" windowWidth="11900" windowHeight="21520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27160" yWindow="2580" windowWidth="11900" windowHeight="21520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableSX_countries_without_genus" sheetId="1" r:id="rId1"/>
@@ -1560,7 +1560,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
